--- a/data/trans_orig/P2405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B363DAC-DE3D-4F22-9CE4-32E888BA3322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{247FB99B-BF79-437B-8482-EBD198A685A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0ADA4302-4568-4916-9469-22B33FC7BE2D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{254F8166-247D-43C1-A53D-84DE7CCBC747}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,78%</t>
+    <t>15,71%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>11,56%</t>
+    <t>9,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>97,39%</t>
   </si>
   <si>
-    <t>88,22%</t>
+    <t>84,29%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,7 +115,7 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>88,44%</t>
+    <t>90,79%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -124,13 +124,13 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,65%</t>
+    <t>2,6%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>2,87%</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -139,25 +139,25 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>97,35%</t>
+    <t>97,4%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>97,13%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>97,88%</t>
+    <t>98,08%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -169,7 +169,7 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -181,598 +181,598 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465B2D7C-594D-46F5-81D8-CF3685F2DE36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BFC50-83FD-46C0-9C87-CE4C97753DB5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,13 +2098,13 @@
         <v>5023</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2116,10 +2116,10 @@
         <v>42</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2134,13 @@
         <v>1370598</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>841</v>
@@ -2149,13 +2149,13 @@
         <v>858307</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>2177</v>
@@ -2167,10 +2167,10 @@
         <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,7 +2226,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE6966A-B2FA-481D-971D-9B7034CCA33F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC53447-E80C-4001-A80E-38307BD2688B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2264,7 +2264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2371,13 +2371,13 @@
         <v>1466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2401,13 +2401,13 @@
         <v>1466</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,10 +2422,10 @@
         <v>50194</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2440,7 +2440,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2452,10 +2452,10 @@
         <v>70212</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2526,13 +2526,13 @@
         <v>2480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2556,13 +2556,13 @@
         <v>3485</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,10 +2577,10 @@
         <v>215442</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2595,7 +2595,7 @@
         <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2607,13 +2607,13 @@
         <v>354121</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2696,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2711,13 +2711,13 @@
         <v>9320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,10 +2747,10 @@
         <v>289361</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2762,10 +2762,10 @@
         <v>686526</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>135</v>
@@ -2991,10 +2991,10 @@
         <v>6477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>153</v>
@@ -3012,7 +3012,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3021,13 +3021,13 @@
         <v>7382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3042,13 @@
         <v>357861</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -3057,10 +3057,10 @@
         <v>292340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -3072,13 +3072,13 @@
         <v>650200</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3146,13 @@
         <v>30027</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3161,13 +3161,13 @@
         <v>3872</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -3179,10 +3179,10 @@
         <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3197,13 @@
         <v>1324069</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>891</v>
@@ -3212,13 +3212,13 @@
         <v>969317</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>2131</v>
@@ -3230,7 +3230,7 @@
         <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>179</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0485AD8C-C551-4B4F-8492-861BD4D44661}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDC773C-A051-4698-8099-4CA3C7ED4238}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3622,10 +3622,10 @@
         <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,10 +3673,10 @@
         <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,7 +3747,7 @@
         <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>198</v>
@@ -3765,7 +3765,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3777,7 +3777,7 @@
         <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>200</v>
@@ -3801,7 +3801,7 @@
         <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>361</v>
@@ -3813,7 +3813,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -3831,7 +3831,7 @@
         <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4054,13 @@
         <v>9242</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4069,13 +4069,13 @@
         <v>1006</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4084,13 +4084,13 @@
         <v>10248</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4105,13 @@
         <v>471841</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -4120,10 +4120,10 @@
         <v>391294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -4135,13 +4135,13 @@
         <v>863135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4209,13 @@
         <v>24052</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4224,13 +4224,13 @@
         <v>4729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -4239,13 +4239,13 @@
         <v>28781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4260,13 @@
         <v>1845636</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H20" s="7">
         <v>1249</v>
@@ -4275,10 +4275,10 @@
         <v>1300101</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>243</v>
@@ -4290,13 +4290,13 @@
         <v>3145737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4352,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{247FB99B-BF79-437B-8482-EBD198A685A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D2F765A-476A-404F-8387-87E4256053AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{254F8166-247D-43C1-A53D-84DE7CCBC747}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{163C7F46-6526-49E1-A339-5C9A4EBA78CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,71%</t>
+    <t>11,94%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>9,21%</t>
+    <t>8,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>97,39%</t>
   </si>
   <si>
-    <t>84,29%</t>
+    <t>88,06%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,619 +115,622 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 45,97%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>98,34%</t>
+    <t>98,71%</t>
   </si>
   <si>
     <t>98,83%</t>
@@ -736,43 +739,40 @@
     <t>97,85%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BFC50-83FD-46C0-9C87-CE4C97753DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB66B83-F797-4260-BB15-A287B713C29F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,13 +2098,13 @@
         <v>5023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2116,10 +2116,10 @@
         <v>42</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2134,13 @@
         <v>1370598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>841</v>
@@ -2149,13 +2149,13 @@
         <v>858307</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>2177</v>
@@ -2167,10 +2167,10 @@
         <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,7 +2226,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC53447-E80C-4001-A80E-38307BD2688B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA43826-A5E0-48D7-8419-77743FF0FAFB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2264,7 +2264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2371,13 +2371,13 @@
         <v>1466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2401,13 +2401,13 @@
         <v>1466</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2422,7 @@
         <v>50194</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>106</v>
@@ -2696,13 +2696,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2711,13 +2711,13 @@
         <v>9320</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,10 +2747,10 @@
         <v>289361</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2762,10 +2762,10 @@
         <v>686526</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>135</v>
@@ -2866,13 +2866,13 @@
         <v>12246</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2887,13 @@
         <v>303407</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>205</v>
@@ -2902,10 +2902,10 @@
         <v>228920</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -2917,13 +2917,13 @@
         <v>532327</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +2991,13 @@
         <v>6477</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3006,13 +3006,13 @@
         <v>904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3021,13 +3021,13 @@
         <v>7382</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3042,13 @@
         <v>357861</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -3057,10 +3057,10 @@
         <v>292340</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -3072,13 +3072,13 @@
         <v>650200</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3146,13 @@
         <v>30027</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3161,13 +3161,13 @@
         <v>3872</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -3179,10 +3179,10 @@
         <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3197,13 @@
         <v>1324069</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>891</v>
@@ -3212,13 +3212,13 @@
         <v>969317</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>2131</v>
@@ -3230,7 +3230,7 @@
         <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>179</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDC773C-A051-4698-8099-4CA3C7ED4238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894B92B5-4991-44FD-A187-18CFAA814A85}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3625,7 +3625,7 @@
         <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,10 +3643,10 @@
         <v>75</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>180</v>
@@ -3655,10 +3655,10 @@
         <v>180337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3670,10 +3670,10 @@
         <v>487182</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>62</v>
@@ -3744,13 +3744,13 @@
         <v>3396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3774,13 +3774,13 @@
         <v>3396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3795,13 @@
         <v>547865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>361</v>
@@ -3813,7 +3813,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -3825,13 +3825,13 @@
         <v>922801</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,10 +3932,10 @@
         <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3950,13 @@
         <v>440366</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>293</v>
@@ -3965,10 +3965,10 @@
         <v>303541</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3980,13 +3980,13 @@
         <v>743906</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,10 +4054,10 @@
         <v>9242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>221</v>
@@ -4087,10 +4087,10 @@
         <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4105,13 @@
         <v>471841</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -4120,10 +4120,10 @@
         <v>391294</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -4135,13 +4135,13 @@
         <v>863135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4209,13 @@
         <v>24052</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4224,13 +4224,13 @@
         <v>4729</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -4239,13 +4239,13 @@
         <v>28781</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4260,13 @@
         <v>1845636</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>1249</v>
@@ -4275,13 +4275,13 @@
         <v>1300101</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>2992</v>
@@ -4290,13 +4290,13 @@
         <v>3145737</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4352,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D2F765A-476A-404F-8387-87E4256053AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D6489B7-C750-461C-9185-EFB56555D7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{163C7F46-6526-49E1-A339-5C9A4EBA78CE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6FDC1348-CA11-4A17-BB92-CD7287B69933}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="245">
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="209">
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,709 +70,601 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,94%</t>
+    <t>6,32%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>92,07%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>99,54%</t>
   </si>
   <si>
     <t>99,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB66B83-F797-4260-BB15-A287B713C29F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A1801F-1B78-4475-B0FC-5363680F34E7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1353,10 +1245,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D5" s="7">
-        <v>45356</v>
+        <v>114143</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1368,10 +1260,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I5" s="7">
-        <v>20698</v>
+        <v>112755</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -1383,10 +1275,10 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="N5" s="7">
-        <v>66054</v>
+        <v>226898</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1404,10 +1296,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>46571</v>
+        <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -1419,10 +1311,10 @@
         <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7">
-        <v>20698</v>
+        <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -1434,10 +1326,10 @@
         <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="N6" s="7">
-        <v>67269</v>
+        <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -1508,10 +1400,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>265</v>
+        <v>576</v>
       </c>
       <c r="D8" s="7">
-        <v>270682</v>
+        <v>576626</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -1523,10 +1415,10 @@
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>138</v>
+        <v>567</v>
       </c>
       <c r="I8" s="7">
-        <v>140136</v>
+        <v>574631</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
@@ -1538,10 +1430,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>403</v>
+        <v>1143</v>
       </c>
       <c r="N8" s="7">
-        <v>410818</v>
+        <v>1151257</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1559,10 +1451,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>267</v>
+        <v>578</v>
       </c>
       <c r="D9" s="7">
-        <v>272710</v>
+        <v>578654</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -1574,10 +1466,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>139</v>
+        <v>568</v>
       </c>
       <c r="I9" s="7">
-        <v>141101</v>
+        <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -1589,10 +1481,10 @@
         <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>406</v>
+        <v>1146</v>
       </c>
       <c r="N9" s="7">
-        <v>413811</v>
+        <v>1154250</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -1621,10 +1513,10 @@
         <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1639,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1648,13 +1540,13 @@
         <v>3578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,49 +1555,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>375</v>
+        <v>892</v>
       </c>
       <c r="D11" s="7">
-        <v>402702</v>
+        <v>957180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>215</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>227136</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>590</v>
+        <v>1800</v>
       </c>
       <c r="N11" s="7">
-        <v>629838</v>
+        <v>1925573</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>378</v>
+        <v>895</v>
       </c>
       <c r="D12" s="7">
-        <v>406280</v>
+        <v>960758</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -1729,10 +1621,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>215</v>
+        <v>908</v>
       </c>
       <c r="I12" s="7">
-        <v>227136</v>
+        <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -1744,10 +1636,10 @@
         <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>1803</v>
       </c>
       <c r="N12" s="7">
-        <v>633416</v>
+        <v>1929151</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1761,7 +1653,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1773,13 +1665,13 @@
         <v>3713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1794,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1803,13 +1695,13 @@
         <v>3713</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,49 +1710,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>638</v>
       </c>
       <c r="D14" s="7">
-        <v>250262</v>
+        <v>674796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
-        <v>176</v>
+        <v>696</v>
       </c>
       <c r="I14" s="7">
-        <v>170001</v>
+        <v>683841</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>411</v>
+        <v>1334</v>
       </c>
       <c r="N14" s="7">
-        <v>420263</v>
+        <v>1358637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,10 +1761,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>253975</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -1884,10 +1776,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>176</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>170001</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -1899,10 +1791,10 @@
         <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>414</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>423976</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -1916,7 +1808,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1928,13 +1820,13 @@
         <v>4149</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1943,13 +1835,13 @@
         <v>4058</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1958,13 +1850,13 @@
         <v>8207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,25 +1865,25 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>419</v>
+        <v>990</v>
       </c>
       <c r="D17" s="7">
-        <v>401596</v>
+        <v>938073</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H17" s="7">
-        <v>289</v>
+        <v>994</v>
       </c>
       <c r="I17" s="7">
-        <v>300336</v>
+        <v>1034554</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>78</v>
@@ -2000,22 +1892,22 @@
         <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1984</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1972627</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="7">
-        <v>708</v>
-      </c>
-      <c r="N17" s="7">
-        <v>701932</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>423</v>
+        <v>994</v>
       </c>
       <c r="D18" s="7">
-        <v>405745</v>
+        <v>942222</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -2039,10 +1931,10 @@
         <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>292</v>
+        <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>304394</v>
+        <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -2054,10 +1946,10 @@
         <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>715</v>
+        <v>1991</v>
       </c>
       <c r="N18" s="7">
-        <v>710139</v>
+        <v>1980834</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -2083,13 +1975,13 @@
         <v>14683</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2098,13 +1990,13 @@
         <v>5023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -2113,13 +2005,13 @@
         <v>19706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,49 +2020,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>1336</v>
+        <v>3200</v>
       </c>
       <c r="D20" s="7">
-        <v>1370598</v>
+        <v>3260818</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="H20" s="7">
-        <v>841</v>
+        <v>3293</v>
       </c>
       <c r="I20" s="7">
-        <v>858307</v>
+        <v>3374175</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
-        <v>2177</v>
+        <v>6493</v>
       </c>
       <c r="N20" s="7">
-        <v>2228906</v>
+        <v>6634992</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,10 +2071,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1349</v>
+        <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>1385281</v>
+        <v>3275501</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2194,10 +2086,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>845</v>
+        <v>3297</v>
       </c>
       <c r="I21" s="7">
-        <v>863330</v>
+        <v>3379198</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -2209,10 +2101,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>2194</v>
+        <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>2248612</v>
+        <v>6654698</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2226,7 +2118,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA43826-A5E0-48D7-8419-77743FF0FAFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F3626B-AE66-4680-A763-F76DDB3D6D73}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2264,7 +2156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2371,13 +2263,13 @@
         <v>1466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2392,7 +2284,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2401,13 +2293,13 @@
         <v>1466</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,46 +2308,46 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7">
-        <v>50194</v>
+        <v>114299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I5" s="7">
-        <v>20018</v>
+        <v>111905</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="N5" s="7">
-        <v>70212</v>
+        <v>226204</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2467,10 +2359,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>51660</v>
+        <v>115765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -2482,10 +2374,10 @@
         <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I6" s="7">
-        <v>20018</v>
+        <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -2497,10 +2389,10 @@
         <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="N6" s="7">
-        <v>71678</v>
+        <v>227670</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -2526,13 +2418,13 @@
         <v>2480</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2541,13 +2433,13 @@
         <v>1005</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2556,13 +2448,13 @@
         <v>3485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,49 +2463,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>206</v>
+        <v>550</v>
       </c>
       <c r="D8" s="7">
-        <v>215442</v>
+        <v>585224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>128</v>
+        <v>548</v>
       </c>
       <c r="I8" s="7">
-        <v>138678</v>
+        <v>582001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>334</v>
+        <v>1098</v>
       </c>
       <c r="N8" s="7">
-        <v>354121</v>
+        <v>1167225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>208</v>
+        <v>552</v>
       </c>
       <c r="D9" s="7">
-        <v>217922</v>
+        <v>587704</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -2637,10 +2529,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>129</v>
+        <v>549</v>
       </c>
       <c r="I9" s="7">
-        <v>139683</v>
+        <v>583006</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -2652,10 +2544,10 @@
         <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>337</v>
+        <v>1101</v>
       </c>
       <c r="N9" s="7">
-        <v>357606</v>
+        <v>1170710</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -2681,13 +2573,13 @@
         <v>8334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2696,13 +2588,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2711,13 +2603,13 @@
         <v>9320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,49 +2618,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>364</v>
+        <v>928</v>
       </c>
       <c r="D11" s="7">
-        <v>397164</v>
+        <v>1008584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
-        <v>264</v>
+        <v>939</v>
       </c>
       <c r="I11" s="7">
-        <v>289361</v>
+        <v>1031198</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>628</v>
+        <v>1867</v>
       </c>
       <c r="N11" s="7">
-        <v>686526</v>
+        <v>2039782</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,10 +2669,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>371</v>
+        <v>935</v>
       </c>
       <c r="D12" s="7">
-        <v>405498</v>
+        <v>1016918</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -2792,10 +2684,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>940</v>
       </c>
       <c r="I12" s="7">
-        <v>290347</v>
+        <v>1032184</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -2807,10 +2699,10 @@
         <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>636</v>
+        <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>695846</v>
+        <v>2049102</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -2824,7 +2716,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2836,13 +2728,13 @@
         <v>11270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2851,13 +2743,13 @@
         <v>976</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2866,13 +2758,13 @@
         <v>12246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,49 +2773,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>273</v>
+        <v>677</v>
       </c>
       <c r="D14" s="7">
-        <v>303407</v>
+        <v>746353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
-        <v>205</v>
+        <v>703</v>
       </c>
       <c r="I14" s="7">
-        <v>228920</v>
+        <v>775202</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>478</v>
+        <v>1380</v>
       </c>
       <c r="N14" s="7">
-        <v>532327</v>
+        <v>1521555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>285</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>314677</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -2947,10 +2839,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>206</v>
+        <v>704</v>
       </c>
       <c r="I15" s="7">
-        <v>229896</v>
+        <v>776178</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -2962,10 +2854,10 @@
         <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>491</v>
+        <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>544573</v>
+        <v>1533801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -2979,7 +2871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2883,13 @@
         <v>6477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3006,13 +2898,13 @@
         <v>904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3021,13 +2913,13 @@
         <v>7382</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,49 +2928,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>347</v>
+        <v>903</v>
       </c>
       <c r="D17" s="7">
-        <v>357861</v>
+        <v>940321</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
-        <v>277</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="7">
-        <v>292340</v>
+        <v>1049069</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>624</v>
+        <v>1903</v>
       </c>
       <c r="N17" s="7">
-        <v>650200</v>
+        <v>1989390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,10 +2979,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>353</v>
+        <v>909</v>
       </c>
       <c r="D18" s="7">
-        <v>364338</v>
+        <v>946798</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -3102,10 +2994,10 @@
         <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>278</v>
+        <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>293244</v>
+        <v>1049973</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -3117,10 +3009,10 @@
         <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>631</v>
+        <v>1910</v>
       </c>
       <c r="N18" s="7">
-        <v>657582</v>
+        <v>1996772</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -3146,13 +3038,13 @@
         <v>30027</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3161,13 +3053,13 @@
         <v>3872</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -3176,13 +3068,13 @@
         <v>33898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,49 +3083,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>1240</v>
+        <v>3178</v>
       </c>
       <c r="D20" s="7">
-        <v>1324069</v>
+        <v>3394781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
-        <v>891</v>
+        <v>3289</v>
       </c>
       <c r="I20" s="7">
-        <v>969317</v>
+        <v>3549374</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
-        <v>2131</v>
+        <v>6467</v>
       </c>
       <c r="N20" s="7">
-        <v>2293386</v>
+        <v>6944156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1269</v>
+        <v>3207</v>
       </c>
       <c r="D21" s="7">
-        <v>1354096</v>
+        <v>3424808</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -3257,10 +3149,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>895</v>
+        <v>3293</v>
       </c>
       <c r="I21" s="7">
-        <v>973189</v>
+        <v>3553246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -3272,10 +3164,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>2164</v>
+        <v>6500</v>
       </c>
       <c r="N21" s="7">
-        <v>2327284</v>
+        <v>6978054</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -3289,7 +3181,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894B92B5-4991-44FD-A187-18CFAA814A85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23091BB5-ABFB-4E85-B702-5D5B79F83D5C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3327,7 +3219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3440,7 +3332,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3455,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3470,7 +3362,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,46 +3371,46 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>78719</v>
+        <v>116546</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I5" s="7">
-        <v>49995</v>
+        <v>113360</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="N5" s="7">
-        <v>128714</v>
+        <v>229906</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -3530,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D6" s="7">
-        <v>78719</v>
+        <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -3545,10 +3437,10 @@
         <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I6" s="7">
-        <v>49995</v>
+        <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -3560,10 +3452,10 @@
         <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="N6" s="7">
-        <v>128714</v>
+        <v>229906</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -3589,13 +3481,13 @@
         <v>3148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3604,13 +3496,13 @@
         <v>1754</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3619,13 +3511,13 @@
         <v>4901</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,49 +3526,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>293</v>
+        <v>535</v>
       </c>
       <c r="D8" s="7">
-        <v>306844</v>
+        <v>554160</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="H8" s="7">
-        <v>180</v>
+        <v>547</v>
       </c>
       <c r="I8" s="7">
-        <v>180337</v>
+        <v>555123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>473</v>
+        <v>1082</v>
       </c>
       <c r="N8" s="7">
-        <v>487182</v>
+        <v>1109284</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,10 +3577,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>296</v>
+        <v>538</v>
       </c>
       <c r="D9" s="7">
-        <v>309992</v>
+        <v>557308</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -3700,10 +3592,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>182</v>
+        <v>549</v>
       </c>
       <c r="I9" s="7">
-        <v>182091</v>
+        <v>556877</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -3715,10 +3607,10 @@
         <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>478</v>
+        <v>1087</v>
       </c>
       <c r="N9" s="7">
-        <v>492083</v>
+        <v>1114185</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -3744,13 +3636,13 @@
         <v>3396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3765,7 +3657,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3774,13 +3666,13 @@
         <v>3396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,49 +3681,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>505</v>
+        <v>946</v>
       </c>
       <c r="D11" s="7">
-        <v>547865</v>
+        <v>1016851</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>361</v>
+        <v>975</v>
       </c>
       <c r="I11" s="7">
-        <v>374936</v>
+        <v>1041065</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>866</v>
+        <v>1921</v>
       </c>
       <c r="N11" s="7">
-        <v>922801</v>
+        <v>2057916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>508</v>
+        <v>949</v>
       </c>
       <c r="D12" s="7">
-        <v>551261</v>
+        <v>1020247</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -3855,10 +3747,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>361</v>
+        <v>975</v>
       </c>
       <c r="I12" s="7">
-        <v>374936</v>
+        <v>1041065</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -3870,10 +3762,10 @@
         <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>869</v>
+        <v>1924</v>
       </c>
       <c r="N12" s="7">
-        <v>926197</v>
+        <v>2061312</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -3887,7 +3779,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3899,13 +3791,13 @@
         <v>8266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3914,13 +3806,13 @@
         <v>1969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3929,13 +3821,13 @@
         <v>10236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,49 +3836,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>400</v>
+        <v>683</v>
       </c>
       <c r="D14" s="7">
-        <v>440366</v>
+        <v>745527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
-        <v>293</v>
+        <v>730</v>
       </c>
       <c r="I14" s="7">
-        <v>303541</v>
+        <v>779012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>693</v>
+        <v>1413</v>
       </c>
       <c r="N14" s="7">
-        <v>743906</v>
+        <v>1524537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,10 +3887,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>408</v>
+        <v>691</v>
       </c>
       <c r="D15" s="7">
-        <v>448632</v>
+        <v>753793</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -4010,10 +3902,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>295</v>
+        <v>732</v>
       </c>
       <c r="I15" s="7">
-        <v>305510</v>
+        <v>780981</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -4025,10 +3917,10 @@
         <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>703</v>
+        <v>1423</v>
       </c>
       <c r="N15" s="7">
-        <v>754142</v>
+        <v>1534773</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -4042,7 +3934,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4054,13 +3946,13 @@
         <v>9242</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4069,13 +3961,13 @@
         <v>1006</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4084,13 +3976,13 @@
         <v>10248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,49 +3991,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>470</v>
+        <v>920</v>
       </c>
       <c r="D17" s="7">
-        <v>471841</v>
+        <v>925547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>365</v>
+        <v>957</v>
       </c>
       <c r="I17" s="7">
-        <v>391294</v>
+        <v>1041487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>835</v>
+        <v>1877</v>
       </c>
       <c r="N17" s="7">
-        <v>863135</v>
+        <v>1967035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,10 +4042,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>479</v>
+        <v>929</v>
       </c>
       <c r="D18" s="7">
-        <v>481083</v>
+        <v>934789</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -4165,10 +4057,10 @@
         <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>366</v>
+        <v>958</v>
       </c>
       <c r="I18" s="7">
-        <v>392300</v>
+        <v>1042493</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -4180,10 +4072,10 @@
         <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>845</v>
+        <v>1887</v>
       </c>
       <c r="N18" s="7">
-        <v>873383</v>
+        <v>1977283</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -4209,13 +4101,13 @@
         <v>24052</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4224,13 +4116,13 @@
         <v>4729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -4239,13 +4131,13 @@
         <v>28781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,49 +4146,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>1743</v>
+        <v>3197</v>
       </c>
       <c r="D20" s="7">
-        <v>1845636</v>
+        <v>3358631</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
-        <v>1249</v>
+        <v>3324</v>
       </c>
       <c r="I20" s="7">
-        <v>1300101</v>
+        <v>3530047</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
-        <v>2992</v>
+        <v>6521</v>
       </c>
       <c r="N20" s="7">
-        <v>3145737</v>
+        <v>6888678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,10 +4197,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1766</v>
+        <v>3220</v>
       </c>
       <c r="D21" s="7">
-        <v>1869688</v>
+        <v>3382683</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -4320,10 +4212,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>1254</v>
+        <v>3329</v>
       </c>
       <c r="I21" s="7">
-        <v>1304830</v>
+        <v>3534776</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -4335,10 +4227,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>3020</v>
+        <v>6549</v>
       </c>
       <c r="N21" s="7">
-        <v>3174518</v>
+        <v>6917459</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -4352,7 +4244,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
